--- a/metadata/error-codes.xlsx
+++ b/metadata/error-codes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t xml:space="preserve">syscode</t>
   </si>
@@ -47,42 +47,45 @@
     <t xml:space="preserve">sales</t>
   </si>
   <si>
+    <t xml:space="preserve">get files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All levels including custom levels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketing</t>
+  </si>
+  <si>
     <t xml:space="preserve">staging</t>
   </si>
   <si>
-    <t xml:space="preserve">ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All levels including custom levels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marketing</t>
+    <t xml:space="preserve">TRACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designates finer-grained informational events than the DEBUG.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finance</t>
   </si>
   <si>
     <t xml:space="preserve">dimensions</t>
   </si>
   <si>
-    <t xml:space="preserve">TRACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designates finer-grained informational events than the DEBUG.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finance</t>
+    <t xml:space="preserve">DEBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designates fine-grained informational events that are most useful to debug an application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logistics</t>
   </si>
   <si>
     <t xml:space="preserve">facts</t>
   </si>
   <si>
-    <t xml:space="preserve">DEBUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designates fine-grained informational events that are most useful to debug an application.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logistics</t>
-  </si>
-  <si>
     <t xml:space="preserve">INFO</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validations</t>
   </si>
   <si>
     <t xml:space="preserve">WARN</t>
@@ -152,7 +158,7 @@
     <numFmt numFmtId="165" formatCode="00"/>
     <numFmt numFmtId="166" formatCode="000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -176,21 +182,144 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -198,8 +327,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,13 +367,61 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,14 +438,90 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -264,16 +532,16 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="12.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="95.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="12.8979591836735"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="95.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="12.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,7 +577,7 @@
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="n">
@@ -375,15 +643,20 @@
       <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,17 +664,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,17 +687,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2"/>
       <c r="E7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,17 +705,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2"/>
       <c r="E8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,10 +725,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -471,32 +749,32 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.8979591836735"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,16 +782,16 @@
         <v>10101</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/metadata/error-codes.xlsx
+++ b/metadata/error-codes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lokke\Documents\knowbi-pentaho-error-handling-framework\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lokke\Documents\knowbi-pentaho-error-handling-framework-brulok\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>syscode</t>
   </si>
@@ -872,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -961,10 +961,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1027,6 +1027,15 @@
       </c>
       <c r="C3" s="4">
         <v>20202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
+        <v>30303</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/error-codes.xlsx
+++ b/metadata/error-codes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lokke\Documents\knowbi-pentaho-error-handling-framework-brulok\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shila\Documents\Github\knowbi-pentaho-error-handling-framework\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171C6FB9-6796-4CBF-BE54-BED26F64B545}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>syscode</t>
   </si>
@@ -225,12 +226,30 @@
   </si>
   <si>
     <t>Error %SYSTEM%</t>
+  </si>
+  <si>
+    <t>Error %SYSTEM%, %SUBSYSTEM%, %LEVEL%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>010201</t>
+  </si>
+  <si>
+    <t>010301</t>
+  </si>
+  <si>
+    <t>010401</t>
+  </si>
+  <si>
+    <t>010501</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="000000"/>
@@ -656,22 +675,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="95.28515625" customWidth="1"/>
-    <col min="8" max="1025" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="95.33203125" customWidth="1"/>
+    <col min="8" max="1025" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -717,7 +736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -740,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -763,7 +782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -786,7 +805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -809,7 +828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -827,7 +846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -845,7 +864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="C9" s="2"/>
       <c r="E9" s="2">
@@ -869,21 +888,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" customWidth="1"/>
-    <col min="3" max="1025" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" customWidth="1"/>
+    <col min="3" max="1025" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -901,7 +920,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>10101</v>
       </c>
@@ -909,16 +928,16 @@
         <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>20202</v>
       </c>
@@ -935,7 +954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>30303</v>
       </c>
@@ -943,15 +962,83 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>10201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>10301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>10401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>10501</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="C2:E4">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="C2:E4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -960,25 +1047,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>58</v>
       </c>
@@ -998,7 +1085,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1021,7 +1108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1029,13 +1116,93 @@
         <v>20202</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
         <v>30303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1045,20 +1212,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
@@ -1066,7 +1233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1074,7 +1241,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1082,7 +1249,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1090,7 +1257,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>

--- a/metadata/error-codes.xlsx
+++ b/metadata/error-codes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t xml:space="preserve">syscode</t>
   </si>
@@ -592,8 +592,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -605,8 +605,8 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -681,12 +681,18 @@
       <c r="A4" s="4" t="n">
         <v>30303</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -779,8 +785,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -790,10 +796,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -864,9 +870,20 @@
       <c r="A4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="n">
-        <v>30303</v>
+      <c r="B4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,7 +894,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>54</v>
@@ -897,7 +914,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>54</v>
@@ -917,7 +934,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>54</v>
@@ -929,26 +946,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/metadata/error-codes.xlsx
+++ b/metadata/error-codes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="76">
   <si>
     <t xml:space="preserve">syscode</t>
   </si>
@@ -160,7 +160,16 @@
     <t xml:space="preserve">Error %SYSTEM%</t>
   </si>
   <si>
+    <t xml:space="preserve">Test message</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error %SYSTEM%, %SUBSYSTEM%, %LEVEL%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could not find all ‘combined’ tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could not find all views. Check detailed logging for more details. </t>
   </si>
   <si>
     <t xml:space="preserve">Default Table</t>
@@ -603,10 +612,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -681,6 +690,9 @@
       <c r="A4" s="4" t="n">
         <v>30303</v>
       </c>
+      <c r="B4" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
@@ -699,7 +711,7 @@
         <v>10201</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
@@ -719,7 +731,7 @@
         <v>10301</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
@@ -739,7 +751,7 @@
         <v>10401</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -759,7 +771,7 @@
         <v>10501</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>42</v>
@@ -774,9 +786,49 @@
         <v>42</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>30304</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>30305</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:F4 D5:E8" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:F4 D5:E10" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -798,7 +850,7 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -817,50 +869,50 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="7" t="n">
         <v>10101</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>20202</v>
@@ -868,82 +920,82 @@
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -978,42 +1030,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/error-codes.xlsx
+++ b/metadata/error-codes.xlsx
@@ -157,13 +157,13 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
+    <t xml:space="preserve">Error %SYSTEM%, %SUBSYSTEM%, %LEVEL%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error %SYSTEM%</t>
   </si>
   <si>
     <t xml:space="preserve">Test message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error %SYSTEM%, %SUBSYSTEM%, %LEVEL%</t>
   </si>
   <si>
     <t xml:space="preserve">Could not find all ‘combined’ tables</t>
@@ -615,7 +615,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -668,7 +668,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>20202</v>
+        <v>10201</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>44</v>
@@ -683,15 +683,15 @@
         <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>30303</v>
+        <v>10301</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -708,10 +708,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>10201</v>
+        <v>10401</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
@@ -728,10 +728,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>10301</v>
+        <v>10501</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
@@ -748,10 +748,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>10401</v>
+        <v>20202</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -763,21 +763,21 @@
         <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>10501</v>
+        <v>30303</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>43</v>
@@ -828,7 +828,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:F4 D5:E10" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:F2 D3:E6 C7:F8 D9:E10" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
